--- a/data/Copydata_with_features.xlsx
+++ b/data/Copydata_with_features.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL360"/>
+  <dimension ref="A1:AO360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,6 +628,21 @@
           <t>semantic_density</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Zipf-value</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>autoencoder_value</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>try_expected_value</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -746,6 +761,15 @@
       <c r="AL2" t="n">
         <v>0.4718305408954621</v>
       </c>
+      <c r="AM2" t="n">
+        <v>3.607804487601378</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.4069414138793945</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>4.419999957084656</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -864,6 +888,15 @@
       <c r="AL3" t="n">
         <v>0.4418384730815887</v>
       </c>
+      <c r="AM3" t="n">
+        <v>2.723197906303447</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.6312255859375</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>4.389999996870756</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -982,6 +1015,15 @@
       <c r="AL4" t="n">
         <v>0.5942853778600693</v>
       </c>
+      <c r="AM4" t="n">
+        <v>3.136932182158717</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.3816727995872498</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>3.840000126510859</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1100,6 +1142,15 @@
       <c r="AL5" t="n">
         <v>0.3893526732921601</v>
       </c>
+      <c r="AM5" t="n">
+        <v>1.893894133472422</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.6236264109611511</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>3.709999989718199</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1218,6 +1269,15 @@
       <c r="AL6" t="n">
         <v>0.6120944380760193</v>
       </c>
+      <c r="AM6" t="n">
+        <v>3.626287893295391</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.3261737823486328</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>3.980000013485551</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1336,6 +1396,15 @@
       <c r="AL7" t="n">
         <v>0.6338555932044982</v>
       </c>
+      <c r="AM7" t="n">
+        <v>4.900787841420323</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.5876120924949646</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>4.799999969080091</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1454,6 +1523,15 @@
       <c r="AL8" t="n">
         <v>0.5487809121608734</v>
       </c>
+      <c r="AM8" t="n">
+        <v>4.771553377584031</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.610804557800293</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>4.019999990239739</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1572,6 +1650,15 @@
       <c r="AL9" t="n">
         <v>0.5820802688598633</v>
       </c>
+      <c r="AM9" t="n">
+        <v>3.047708997816951</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-1.13311755657196</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>3.999999986961484</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1690,6 +1777,15 @@
       <c r="AL10" t="n">
         <v>0.5493778556585311</v>
       </c>
+      <c r="AM10" t="n">
+        <v>3.189461233434901</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-0.7153208255767822</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>4.470000026747584</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1808,6 +1904,15 @@
       <c r="AL11" t="n">
         <v>0.4492398172616959</v>
       </c>
+      <c r="AM11" t="n">
+        <v>2.87161773876127</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.2312953472137451</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>3.710000028833747</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1926,6 +2031,15 @@
       <c r="AL12" t="n">
         <v>0.5044936895370483</v>
       </c>
+      <c r="AM12" t="n">
+        <v>3.31714000740923</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-1.030753135681152</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>4.300000067800283</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -2044,6 +2158,15 @@
       <c r="AL13" t="n">
         <v>0.7812279105186463</v>
       </c>
+      <c r="AM13" t="n">
+        <v>4.871846254673884</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-1.431944012641907</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>4.330000083893538</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -2162,6 +2285,15 @@
       <c r="AL14" t="n">
         <v>0.4110865354537964</v>
       </c>
+      <c r="AM14" t="n">
+        <v>3.511942230184515</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>-1.291637778282166</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>4.399999998509884</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -2280,6 +2412,15 @@
       <c r="AL15" t="n">
         <v>0.3776965767145157</v>
       </c>
+      <c r="AM15" t="n">
+        <v>2.29183414214446</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.7462134957313538</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>4.369999937713146</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -2398,6 +2539,15 @@
       <c r="AL16" t="n">
         <v>0.5146887809038162</v>
       </c>
+      <c r="AM16" t="n">
+        <v>3.264961995744159</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>-1.210047841072083</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>4.530000016093254</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -2516,6 +2666,15 @@
       <c r="AL17" t="n">
         <v>0.6735844075679779</v>
       </c>
+      <c r="AM17" t="n">
+        <v>3.645942581291861</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>-0.6004231572151184</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>5.159999914467335</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -2634,6 +2793,15 @@
       <c r="AL18" t="n">
         <v>0.5285147547721862</v>
       </c>
+      <c r="AM18" t="n">
+        <v>3.579635872074686</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.8328784108161926</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>4.260000040754676</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -2752,6 +2920,15 @@
       <c r="AL19" t="n">
         <v>0.5402718842029571</v>
       </c>
+      <c r="AM19" t="n">
+        <v>4.570587743097289</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>-0.5711141228675842</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>5.360000031068921</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -2870,6 +3047,15 @@
       <c r="AL20" t="n">
         <v>0.6288888454437256</v>
       </c>
+      <c r="AM20" t="n">
+        <v>4.586520766423903</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>-0.9900887012481689</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>4.550000123679638</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -2988,6 +3174,15 @@
       <c r="AL21" t="n">
         <v>0.6406423807144165</v>
       </c>
+      <c r="AM21" t="n">
+        <v>4.09733500030286</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>-0.8111572265625</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>4.53999999910593</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -3106,6 +3301,15 @@
       <c r="AL22" t="n">
         <v>0.5866822183132172</v>
       </c>
+      <c r="AM22" t="n">
+        <v>3.810348082022347</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>-0.744110107421875</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>4.310000110417604</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -3224,6 +3428,15 @@
       <c r="AL23" t="n">
         <v>0.4829078316688538</v>
       </c>
+      <c r="AM23" t="n">
+        <v>4.810348082022347</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.5750644207000732</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>4.950000036507845</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -3342,6 +3555,15 @@
       <c r="AL24" t="n">
         <v>0.4356199651956558</v>
       </c>
+      <c r="AM24" t="n">
+        <v>2.982030222172974</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>-1.241343259811401</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>3.830000029876828</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -3460,6 +3682,15 @@
       <c r="AL25" t="n">
         <v>0.563960462808609</v>
       </c>
+      <c r="AM25" t="n">
+        <v>2.768955396864123</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>-0.3990690112113953</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>4.579999964684248</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -3578,6 +3809,15 @@
       <c r="AL26" t="n">
         <v>0.4705993264913559</v>
       </c>
+      <c r="AM26" t="n">
+        <v>3.062686153786604</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>-0.7905011177062988</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>4.260000010952353</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -3696,6 +3936,15 @@
       <c r="AL27" t="n">
         <v>0.3812893450260162</v>
       </c>
+      <c r="AM27" t="n">
+        <v>3.967612483818545</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>-0.5669185519218445</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>4.17999998293817</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -3814,6 +4063,15 @@
       <c r="AL28" t="n">
         <v>0.5605266332626343</v>
       </c>
+      <c r="AM28" t="n">
+        <v>3.178324867316942</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.01886880397796631</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>4.059999939054251</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -3932,6 +4190,15 @@
       <c r="AL29" t="n">
         <v>0.5222013473510743</v>
       </c>
+      <c r="AM29" t="n">
+        <v>3.88843123777092</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>-1.258730292320251</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>4.019999967887998</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -4050,6 +4317,15 @@
       <c r="AL30" t="n">
         <v>0.5822609841823578</v>
       </c>
+      <c r="AM30" t="n">
+        <v>3.269557747433308</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>-0.948647141456604</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>5.280000081285834</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -4168,6 +4444,15 @@
       <c r="AL31" t="n">
         <v>0.5107102066278457</v>
       </c>
+      <c r="AM31" t="n">
+        <v>2.437962177822698</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.81804358959198</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>5.330000035464764</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -4286,6 +4571,15 @@
       <c r="AL32" t="n">
         <v>0.4508248090744019</v>
       </c>
+      <c r="AM32" t="n">
+        <v>3.155157002264916</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>-0.215600848197937</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>4.479999916628003</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -4404,6 +4698,15 @@
       <c r="AL33" t="n">
         <v>0.6508488059043884</v>
       </c>
+      <c r="AM33" t="n">
+        <v>4.690121447501861</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>-0.8055588603019714</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>4.269999912008643</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -4522,6 +4825,15 @@
       <c r="AL34" t="n">
         <v>0.5012927174568176</v>
       </c>
+      <c r="AM34" t="n">
+        <v>2.768955396864123</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.4378339648246765</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>3.970000023022294</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -4640,6 +4952,15 @@
       <c r="AL35" t="n">
         <v>0.5380897909402848</v>
       </c>
+      <c r="AM35" t="n">
+        <v>2.405777494451296</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>-1.277121663093567</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>4.639999991282821</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -4758,6 +5079,15 @@
       <c r="AL36" t="n">
         <v>0.6548760771751404</v>
       </c>
+      <c r="AM36" t="n">
+        <v>5.522129756061506</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>-0.8902766704559326</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>3.760000016540289</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -4876,6 +5206,15 @@
       <c r="AL37" t="n">
         <v>0.4925772577524185</v>
       </c>
+      <c r="AM37" t="n">
+        <v>5.083103623054729</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>-1.426590085029602</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>4.789999961853027</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -4994,6 +5333,15 @@
       <c r="AL38" t="n">
         <v>0.4919697135686875</v>
       </c>
+      <c r="AM38" t="n">
+        <v>3.360020003890622</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>-0.9622362852096558</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>4.390000075101852</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -5112,6 +5460,15 @@
       <c r="AL39" t="n">
         <v>0.536794227361679</v>
       </c>
+      <c r="AM39" t="n">
+        <v>3.82712826218723</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>-0.9581827521324158</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>3.810000088065863</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -5230,6 +5587,15 @@
       <c r="AL40" t="n">
         <v>0.550578972697258</v>
       </c>
+      <c r="AM40" t="n">
+        <v>5.184540779950126</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>-1.09095573425293</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>4.330000102519989</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -5348,6 +5714,15 @@
       <c r="AL41" t="n">
         <v>0.564060378074646</v>
       </c>
+      <c r="AM41" t="n">
+        <v>4.262181018374553</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>-0.9014497995376587</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>4.229999918490648</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -5466,6 +5841,15 @@
       <c r="AL42" t="n">
         <v>0.5016448229551316</v>
       </c>
+      <c r="AM42" t="n">
+        <v>2.194924129136403</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>-0.4562698602676392</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>4.030000017955899</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -5584,6 +5968,15 @@
       <c r="AL43" t="n">
         <v>0.5336579859256745</v>
       </c>
+      <c r="AM43" t="n">
+        <v>4.500812659420713</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>-0.2933213710784912</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>3.990000071004033</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -5702,6 +6095,15 @@
       <c r="AL44" t="n">
         <v>0.6040639340877533</v>
       </c>
+      <c r="AM44" t="n">
+        <v>2.783195835978733</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>-0.809883713722229</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>4.240000020712614</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -5820,6 +6222,15 @@
       <c r="AL45" t="n">
         <v>0.4412352800369262</v>
       </c>
+      <c r="AM45" t="n">
+        <v>2.069985392528103</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>-0.74602210521698</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>4.15000007674098</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -5938,6 +6349,15 @@
       <c r="AL46" t="n">
         <v>0.7043357968330384</v>
       </c>
+      <c r="AM46" t="n">
+        <v>6.637707562972593</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.29727041721344</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>3.859999939799309</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -6056,6 +6476,15 @@
       <c r="AL47" t="n">
         <v>0.4992183029651642</v>
       </c>
+      <c r="AM47" t="n">
+        <v>4.136311317890142</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0.03393203020095825</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>4.149999983608723</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -6174,6 +6603,15 @@
       <c r="AL48" t="n">
         <v>0.4920591711997986</v>
       </c>
+      <c r="AM48" t="n">
+        <v>2.738992173486679</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.440798282623291</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>3.639999995008111</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -6292,6 +6730,15 @@
       <c r="AL49" t="n">
         <v>0.5145612061023712</v>
       </c>
+      <c r="AM49" t="n">
+        <v>3.511942230184515</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.8245030045509338</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>4.999999957159162</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -6410,6 +6857,15 @@
       <c r="AL50" t="n">
         <v>0.5857537031173706</v>
       </c>
+      <c r="AM50" t="n">
+        <v>2.653561978162053</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.674955427646637</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>4.07000002451241</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -6528,6 +6984,15 @@
       <c r="AL51" t="n">
         <v>0.4372804820537567</v>
       </c>
+      <c r="AM51" t="n">
+        <v>3.713438069014291</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.6564942002296448</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>4.070000078529119</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -6646,6 +7111,15 @@
       <c r="AL52" t="n">
         <v>0.6496133744716645</v>
       </c>
+      <c r="AM52" t="n">
+        <v>4.063421623025715</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.7523841261863708</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>3.890000062063336</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -6764,6 +7238,15 @@
       <c r="AL53" t="n">
         <v>0.5287727743387223</v>
       </c>
+      <c r="AM53" t="n">
+        <v>3.482165840314751</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.070572972297668</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>4.039999974891543</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -6882,6 +7365,15 @@
       <c r="AL54" t="n">
         <v>0.5812259435653686</v>
       </c>
+      <c r="AM54" t="n">
+        <v>3.581868753506978</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-1.373702883720398</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>4.159999972209334</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -7000,6 +7492,15 @@
       <c r="AL55" t="n">
         <v>0.4397965282201767</v>
       </c>
+      <c r="AM55" t="n">
+        <v>4.563675748680959</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-0.6922726631164551</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>3.499999986961484</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -7118,6 +7619,15 @@
       <c r="AL56" t="n">
         <v>0.680561876296997</v>
       </c>
+      <c r="AM56" t="n">
+        <v>4.755279173914888</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.7977367043495178</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>4.199999986216426</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -7236,6 +7746,15 @@
       <c r="AL57" t="n">
         <v>0.4479674577713013</v>
       </c>
+      <c r="AM57" t="n">
+        <v>3.467925401200141</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-1.214143991470337</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>4.709999892860651</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -7354,6 +7873,15 @@
       <c r="AL58" t="n">
         <v>0.5526220381259919</v>
       </c>
+      <c r="AM58" t="n">
+        <v>5.124279183318571</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.243851900100708</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>3.819999994710088</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -7472,6 +8000,15 @@
       <c r="AL59" t="n">
         <v>0.5967913269996643</v>
       </c>
+      <c r="AM59" t="n">
+        <v>4.358532692567455</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-1.083265423774719</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>3.959999958053231</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -7590,6 +8127,15 @@
       <c r="AL60" t="n">
         <v>0.5193568199872971</v>
       </c>
+      <c r="AM60" t="n">
+        <v>3.269557747433308</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-1.283839821815491</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>4.480000026524067</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -7708,6 +8254,15 @@
       <c r="AL61" t="n">
         <v>0.5838903069496155</v>
       </c>
+      <c r="AM61" t="n">
+        <v>2.935286818630647</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>-0.8860275149345398</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>4.479999963194132</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -7826,6 +8381,15 @@
       <c r="AL62" t="n">
         <v>0.3810792952775955</v>
       </c>
+      <c r="AM62" t="n">
+        <v>2.246076651583785</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-0.2690489292144775</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>4.199999999254942</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -7944,6 +8508,15 @@
       <c r="AL63" t="n">
         <v>0.5150928288698197</v>
       </c>
+      <c r="AM63" t="n">
+        <v>2.614053436878379</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.7306628823280334</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>4.129999937489629</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -8062,6 +8635,15 @@
       <c r="AL64" t="n">
         <v>0.4456872195005417</v>
       </c>
+      <c r="AM64" t="n">
+        <v>3.738992173486679</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.09737861156463623</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>3.949999991804361</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -8180,6 +8762,15 @@
       <c r="AL65" t="n">
         <v>0.5631973564624786</v>
       </c>
+      <c r="AM65" t="n">
+        <v>3.047708997816951</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.314063549041748</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>3.820000030100346</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -8298,6 +8889,15 @@
       <c r="AL66" t="n">
         <v>0.5214650899171829</v>
       </c>
+      <c r="AM66" t="n">
+        <v>4.227341407969172</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.8706320524215698</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>4.029999943450093</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -8416,6 +9016,15 @@
       <c r="AL67" t="n">
         <v>0.5786778271198273</v>
       </c>
+      <c r="AM67" t="n">
+        <v>4.818431851247912</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.5222026705741882</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>4.730000026524067</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -8534,6 +9143,15 @@
       <c r="AL68" t="n">
         <v>0.5275168061256409</v>
       </c>
+      <c r="AM68" t="n">
+        <v>2.333226827302685</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>-0.8482741117477417</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>4.059999937191606</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -8652,6 +9270,15 @@
       <c r="AL69" t="n">
         <v>0.4931416094303131</v>
       </c>
+      <c r="AM69" t="n">
+        <v>3.117908944845286</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>-0.2273732423782349</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>4.500000080093741</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -8770,6 +9397,15 @@
       <c r="AL70" t="n">
         <v>0.4631639122962952</v>
       </c>
+      <c r="AM70" t="n">
+        <v>5.017010443563597</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>-0.8328784108161926</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>4.319999996572733</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -8888,6 +9524,15 @@
       <c r="AL71" t="n">
         <v>0.4747607052326203</v>
       </c>
+      <c r="AM71" t="n">
+        <v>3.991671868011706</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>0.9149287939071655</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>4.530000150203705</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -9006,6 +9651,15 @@
       <c r="AL72" t="n">
         <v>0.3548434138298034</v>
       </c>
+      <c r="AM72" t="n">
+        <v>2.634256822966666</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>-0.9546737670898438</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>4.039999971166253</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -9124,6 +9778,15 @@
       <c r="AL73" t="n">
         <v>0.4942217618227005</v>
       </c>
+      <c r="AM73" t="n">
+        <v>3.588499332405991</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>-0.35870361328125</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>4.050000060349703</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -9242,6 +9905,15 @@
       <c r="AL74" t="n">
         <v>0.6253734230995178</v>
       </c>
+      <c r="AM74" t="n">
+        <v>2.823313059186715</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>-0.9319524168968201</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>3.939999951049685</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -9360,6 +10032,15 @@
       <c r="AL75" t="n">
         <v>0.3796616822481155</v>
       </c>
+      <c r="AM75" t="n">
+        <v>2.614053436878379</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>-0.6036071181297302</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>3.900000022724271</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -9478,6 +10159,15 @@
       <c r="AL76" t="n">
         <v>0.5970455050468445</v>
       </c>
+      <c r="AM76" t="n">
+        <v>4.461508576203267</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>-0.7418743371963501</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>5.830000203102827</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -9596,6 +10286,15 @@
       <c r="AL77" t="n">
         <v>0.4238232463598252</v>
       </c>
+      <c r="AM77" t="n">
+        <v>3.484958740498922</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>-1.143468141555786</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>4.999999884516001</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -9714,6 +10413,15 @@
       <c r="AL78" t="n">
         <v>0.3511033236980438</v>
       </c>
+      <c r="AM78" t="n">
+        <v>3.36738110353699</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>-0.9552358388900757</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>4.100000010803342</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -9832,6 +10540,15 @@
       <c r="AL79" t="n">
         <v>0.5626109182834625</v>
       </c>
+      <c r="AM79" t="n">
+        <v>5.131437871615297</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0.5416262149810791</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>4.350000042468309</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -9950,6 +10667,15 @@
       <c r="AL80" t="n">
         <v>0.5715867877006531</v>
       </c>
+      <c r="AM80" t="n">
+        <v>5.002205406405222</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>-0.752657413482666</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>4.570000035688281</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -10068,6 +10794,15 @@
       <c r="AL81" t="n">
         <v>0.5221840173006058</v>
       </c>
+      <c r="AM81" t="n">
+        <v>4.126254845825993</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>-0.6085942983627319</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>3.97999999858439</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -10186,6 +10921,15 @@
       <c r="AL82" t="n">
         <v>0.5033854395151138</v>
       </c>
+      <c r="AM82" t="n">
+        <v>2.246076651583785</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>0.2348832488059998</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>4.910000141710043</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -10304,6 +11048,15 @@
       <c r="AL83" t="n">
         <v>0.51048743724823</v>
       </c>
+      <c r="AM83" t="n">
+        <v>3.509318086358366</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>-0.7910733222961426</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>4.019999990239739</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -10422,6 +11175,15 @@
       <c r="AL84" t="n">
         <v>0.5974710881710052</v>
       </c>
+      <c r="AM84" t="n">
+        <v>4.917455223569368</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>-0.1620378494262695</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>4.450000056996942</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -10540,6 +11302,15 @@
       <c r="AL85" t="n">
         <v>0.427744260430336</v>
       </c>
+      <c r="AM85" t="n">
+        <v>4.114655787447564</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>-0.1466054916381836</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>3.829999946057796</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -10658,6 +11429,15 @@
       <c r="AL86" t="n">
         <v>0.5684637248516082</v>
       </c>
+      <c r="AM86" t="n">
+        <v>2.634256822966666</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>-0.3314343690872192</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>4.37999995239079</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -10776,6 +11556,15 @@
       <c r="AL87" t="n">
         <v>0.4210733383893966</v>
       </c>
+      <c r="AM87" t="n">
+        <v>3.644016660255823</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>0.3081164360046387</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>4.869999919086695</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -10894,6 +11683,15 @@
       <c r="AL88" t="n">
         <v>0.4383136540651321</v>
       </c>
+      <c r="AM88" t="n">
+        <v>3.16689540553616</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>-1.286855220794678</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>4.599999954923987</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -11012,6 +11810,15 @@
       <c r="AL89" t="n">
         <v>0.4343354284763336</v>
       </c>
+      <c r="AM89" t="n">
+        <v>3.547106647247766</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>-0.9783699512481689</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>4.530000107362866</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -11130,6 +11937,15 @@
       <c r="AL90" t="n">
         <v>0.3465598285198211</v>
       </c>
+      <c r="AM90" t="n">
+        <v>2.495954124800384</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>-0.3757754564285278</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>4.060000013560057</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -11248,6 +12064,15 @@
       <c r="AL91" t="n">
         <v>0.3740513265132904</v>
       </c>
+      <c r="AM91" t="n">
+        <v>3.846928590722779</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>-0.9339428544044495</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>4.379999941214919</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -11366,6 +12191,15 @@
       <c r="AL92" t="n">
         <v>0.418660980463028</v>
       </c>
+      <c r="AM92" t="n">
+        <v>2.768955396864123</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>-0.8880026936531067</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>4.370000001043081</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -11484,6 +12318,15 @@
       <c r="AL93" t="n">
         <v>0.6607621431350708</v>
       </c>
+      <c r="AM93" t="n">
+        <v>5.748154617518834</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>-0.4526687264442444</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>5.05000001937151</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -11602,6 +12445,15 @@
       <c r="AL94" t="n">
         <v>0.5984918951988221</v>
       </c>
+      <c r="AM94" t="n">
+        <v>3.069985392528104</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>-0.9517630338668823</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>4.429999869316816</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -11720,6 +12572,15 @@
       <c r="AL95" t="n">
         <v>0.3618306398391724</v>
       </c>
+      <c r="AM95" t="n">
+        <v>2.467925401200141</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>-0.6009951829910278</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>3.910000005736947</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -11838,6 +12699,15 @@
       <c r="AL96" t="n">
         <v>0.5235856831073761</v>
       </c>
+      <c r="AM96" t="n">
+        <v>2.29183414214446</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>-0.5941087603569031</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>3.569999946281314</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -11956,6 +12826,15 @@
       <c r="AL97" t="n">
         <v>0.5467330127954483</v>
       </c>
+      <c r="AM97" t="n">
+        <v>2.999404318242396</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>-0.444694995880127</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>3.919999960809946</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -12074,6 +12953,15 @@
       <c r="AL98" t="n">
         <v>0.4701451808214188</v>
       </c>
+      <c r="AM98" t="n">
+        <v>3.024227901967429</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>-0.7290905714035034</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>4.109999980777502</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -12192,6 +13080,15 @@
       <c r="AL99" t="n">
         <v>0.603398072719574</v>
       </c>
+      <c r="AM99" t="n">
+        <v>4.77184108510161</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>-0.8789326548576355</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>4.099999902769923</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -12310,6 +13207,15 @@
       <c r="AL100" t="n">
         <v>0.4681181281805039</v>
       </c>
+      <c r="AM100" t="n">
+        <v>3.016110011745249</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>-1.007604241371155</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>4.320000054314733</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -12428,6 +13334,15 @@
       <c r="AL101" t="n">
         <v>0.5086276918649674</v>
       </c>
+      <c r="AM101" t="n">
+        <v>4.332040769719171</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>-0.979578971862793</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>4.760000063106418</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -12546,6 +13461,15 @@
       <c r="AL102" t="n">
         <v>0.5526234954595566</v>
       </c>
+      <c r="AM102" t="n">
+        <v>4.253255236210908</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>-1.223962306976318</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>4.31000005826354</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -12664,6 +13588,15 @@
       <c r="AL103" t="n">
         <v>0.405372554063797</v>
       </c>
+      <c r="AM103" t="n">
+        <v>2.945046655919803</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>-0.8344508409500122</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>5.860000103712082</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -12782,6 +13715,15 @@
       <c r="AL104" t="n">
         <v>0.5080621004104614</v>
       </c>
+      <c r="AM104" t="n">
+        <v>4.055262135707397</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>-0.5574202537536621</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>4.369999887421727</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -12900,6 +13842,15 @@
       <c r="AL105" t="n">
         <v>0.3923993408679962</v>
       </c>
+      <c r="AM105" t="n">
+        <v>2.136932182158717</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>-0.1453264355659485</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>3.339999988675117</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -13018,6 +13969,15 @@
       <c r="AL106" t="n">
         <v>0.5118061423301696</v>
       </c>
+      <c r="AM106" t="n">
+        <v>4.986790144394278</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>-1.216233968734741</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>4.239999936893582</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -13136,6 +14096,15 @@
       <c r="AL107" t="n">
         <v>0.390031024813652</v>
       </c>
+      <c r="AM107" t="n">
+        <v>3.559005870547474</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>-1.303728580474854</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>3.760000046342611</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -13254,6 +14223,13 @@
       <c r="AL108" t="n">
         <v>0.3897210329771042</v>
       </c>
+      <c r="AM108" t="inlineStr"/>
+      <c r="AN108" t="n">
+        <v>2.255668163299561</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>3.440000014379621</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -13372,6 +14348,15 @@
       <c r="AL109" t="n">
         <v>0.6525582551956177</v>
       </c>
+      <c r="AM109" t="n">
+        <v>4.797797660162586</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>-1.201241016387939</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>3.990000078454614</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -13490,6 +14475,15 @@
       <c r="AL110" t="n">
         <v>0.7231034815311432</v>
       </c>
+      <c r="AM110" t="n">
+        <v>2.333226827302685</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>-0.844860315322876</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>4.209999991580844</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -13608,6 +14602,15 @@
       <c r="AL111" t="n">
         <v>0.5864829778671264</v>
       </c>
+      <c r="AM111" t="n">
+        <v>3.909882238856553</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>-0.5583303570747375</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>4.410000024363399</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -13726,6 +14729,15 @@
       <c r="AL112" t="n">
         <v>0.4634119391441345</v>
       </c>
+      <c r="AM112" t="n">
+        <v>4.039245950030883</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0.1022737622261047</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>4.060000013560057</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -13844,6 +14856,15 @@
       <c r="AL113" t="n">
         <v>0.640823769569397</v>
       </c>
+      <c r="AM113" t="n">
+        <v>2.810348082022347</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>-0.3382952809333801</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>4.470000024884939</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -13962,6 +14983,15 @@
       <c r="AL114" t="n">
         <v>0.4602751761674881</v>
       </c>
+      <c r="AM114" t="n">
+        <v>2.904617998864195</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>-0.433911919593811</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>3.989999983459711</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -14080,6 +15110,15 @@
       <c r="AL115" t="n">
         <v>0.5220969438552856</v>
       </c>
+      <c r="AM115" t="n">
+        <v>4.143703742874226</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>-1.041028738021851</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>4.299999980255961</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -14198,6 +15237,15 @@
       <c r="AL116" t="n">
         <v>0.4563022494316101</v>
       </c>
+      <c r="AM116" t="n">
+        <v>5.068970854648633</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>-0.3055345416069031</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>4.340000035241246</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -14316,6 +15364,15 @@
       <c r="AL117" t="n">
         <v>0.5825440764427186</v>
       </c>
+      <c r="AM117" t="n">
+        <v>3.504021746548418</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>-0.4440581798553467</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>3.930000025779009</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -14434,6 +15491,15 @@
       <c r="AL118" t="n">
         <v>0.531260421872139</v>
       </c>
+      <c r="AM118" t="n">
+        <v>2.810348082022347</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>0.07296764850616455</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>4.549999991431832</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -14552,6 +15618,15 @@
       <c r="AL119" t="n">
         <v>0.4285403490066528</v>
       </c>
+      <c r="AM119" t="n">
+        <v>3.588499332405991</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>-0.4922960996627808</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>4.220000004395843</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -14670,6 +15745,15 @@
       <c r="AL120" t="n">
         <v>0.4992525845766068</v>
       </c>
+      <c r="AM120" t="n">
+        <v>2.570587743097289</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>-0.774742066860199</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>5.210000067949295</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -14788,6 +15872,15 @@
       <c r="AL121" t="n">
         <v>0.4436226665973663</v>
       </c>
+      <c r="AM121" t="n">
+        <v>2.973075379520047</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>0.1703054308891296</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>3.929999958723783</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -14906,6 +15999,15 @@
       <c r="AL122" t="n">
         <v>0.543838357925415</v>
       </c>
+      <c r="AM122" t="n">
+        <v>4.19220127080093</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>-1.13295841217041</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>4.880000092089176</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -15024,6 +16126,15 @@
       <c r="AL123" t="n">
         <v>0.6149418175220489</v>
       </c>
+      <c r="AM123" t="n">
+        <v>2.29183414214446</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>-0.5254626274108887</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>4.379999967291951</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -15142,6 +16253,15 @@
       <c r="AL124" t="n">
         <v>0.6373047530651093</v>
       </c>
+      <c r="AM124" t="n">
+        <v>4.349880372539742</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>-0.03500735759735107</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>4.930000089108944</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -15260,6 +16380,15 @@
       <c r="AL125" t="n">
         <v>0.4864557802677155</v>
       </c>
+      <c r="AM125" t="n">
+        <v>2.935286818630647</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>-0.8265527486801147</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>4.440000008791685</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -15378,6 +16507,15 @@
       <c r="AL126" t="n">
         <v>0.5782670795917511</v>
       </c>
+      <c r="AM126" t="n">
+        <v>4.891062004918256</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>-1.02509081363678</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>4.389999970793724</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -15496,6 +16634,15 @@
       <c r="AL127" t="n">
         <v>0.5060901731252671</v>
       </c>
+      <c r="AM127" t="n">
+        <v>3.161065861875436</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>0.1679668426513672</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>3.40999992005527</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -15614,6 +16761,15 @@
       <c r="AL128" t="n">
         <v>0.3616266667842865</v>
       </c>
+      <c r="AM128" t="n">
+        <v>2.29183414214446</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>-0.2348963022232056</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>3.780000027269125</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -15732,6 +16888,15 @@
       <c r="AL129" t="n">
         <v>0.5969253599643707</v>
       </c>
+      <c r="AM129" t="n">
+        <v>3.661049999554603</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>-0.8462989330291748</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>3.719999950379133</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -15850,6 +17015,15 @@
       <c r="AL130" t="n">
         <v>0.4697376668453216</v>
       </c>
+      <c r="AM130" t="n">
+        <v>4.199245502919046</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>-0.9404769539833069</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>3.720000009983778</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -15968,6 +17142,15 @@
       <c r="AL131" t="n">
         <v>0.5619089126586914</v>
       </c>
+      <c r="AM131" t="n">
+        <v>3.484958740498922</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>-0.586509644985199</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>4.59000002220273</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -16086,6 +17269,15 @@
       <c r="AL132" t="n">
         <v>0.5954389333724975</v>
       </c>
+      <c r="AM132" t="n">
+        <v>2.810348082022347</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>-0.2024032473564148</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>4.879999967291951</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -16204,6 +17396,15 @@
       <c r="AL133" t="n">
         <v>0.4807842284440994</v>
       </c>
+      <c r="AM133" t="n">
+        <v>3.53238339042706</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>-1.062983870506287</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>4.230000009760261</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -16322,6 +17523,15 @@
       <c r="AL134" t="n">
         <v>0.6252738833427429</v>
       </c>
+      <c r="AM134" t="n">
+        <v>4.725923780562351</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>-0.3934603333473206</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>4.009999902918935</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -16440,6 +17650,15 @@
       <c r="AL135" t="n">
         <v>0.6279784858226776</v>
       </c>
+      <c r="AM135" t="n">
+        <v>4.714588083445808</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>-1.375545382499695</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>4.099999936297536</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -16558,6 +17777,15 @@
       <c r="AL136" t="n">
         <v>0.5105472594499588</v>
       </c>
+      <c r="AM136" t="n">
+        <v>2.614053436878379</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>-0.6397602558135986</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>3.669999938458204</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -16676,6 +17904,15 @@
       <c r="AL137" t="n">
         <v>0.5634402871131897</v>
       </c>
+      <c r="AM137" t="n">
+        <v>2.246076651583785</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>-0.6591061353683472</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>4.050000052899122</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -16794,6 +18031,15 @@
       <c r="AL138" t="n">
         <v>0.5786985576152801</v>
       </c>
+      <c r="AM138" t="n">
+        <v>4.795897024823152</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>-0.8704923391342163</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>4.689999923110008</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -16912,6 +18158,15 @@
       <c r="AL139" t="n">
         <v>0.3781171262264252</v>
       </c>
+      <c r="AM139" t="n">
+        <v>2.672045383856066</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>-0.5435715913772583</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>4.370000069960952</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -17030,6 +18285,15 @@
       <c r="AL140" t="n">
         <v>0.4933141082525253</v>
       </c>
+      <c r="AM140" t="n">
+        <v>4.205647994528176</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>-0.2513569593429565</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>3.649999925866723</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -17148,6 +18412,15 @@
       <c r="AL141" t="n">
         <v>0.6444348871707917</v>
       </c>
+      <c r="AM141" t="n">
+        <v>2.925302597724047</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>-0.2601650953292847</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>4.940000051632524</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -17266,6 +18539,15 @@
       <c r="AL142" t="n">
         <v>0.4566335171461106</v>
       </c>
+      <c r="AM142" t="n">
+        <v>2.925302597724047</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>0.02327805757522583</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>3.99999993480742</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -17384,6 +18666,15 @@
       <c r="AL143" t="n">
         <v>0.5759169697761536</v>
       </c>
+      <c r="AM143" t="n">
+        <v>3.838376805622591</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>-0.4247122406959534</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>3.509999971836805</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -17502,6 +18793,15 @@
       <c r="AL144" t="n">
         <v>0.5150140970945358</v>
       </c>
+      <c r="AM144" t="n">
+        <v>1.768955396864122</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>-0.7389636039733887</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>5.009999956935644</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -17620,6 +18920,15 @@
       <c r="AL145" t="n">
         <v>0.4774070620536804</v>
       </c>
+      <c r="AM145" t="n">
+        <v>3.402423852443709</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>-0.5002195239067078</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>4.779999988153577</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -17738,6 +19047,15 @@
       <c r="AL146" t="n">
         <v>0.4518945753574372</v>
       </c>
+      <c r="AM146" t="n">
+        <v>4.043882589963898</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>-0.452229380607605</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>3.590000033378601</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -17856,6 +19174,15 @@
       <c r="AL147" t="n">
         <v>0.4823730647563934</v>
       </c>
+      <c r="AM147" t="n">
+        <v>3.194924129136404</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>-0.6551558375358582</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>4.259999996051192</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -17974,6 +19301,15 @@
       <c r="AL148" t="n">
         <v>0.4771155297756195</v>
       </c>
+      <c r="AM148" t="n">
+        <v>3.341052164814641</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>-0.3964316248893738</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>4.32999992184341</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -18092,6 +19428,15 @@
       <c r="AL149" t="n">
         <v>0.5423762232065201</v>
       </c>
+      <c r="AM149" t="n">
+        <v>4.241224148789373</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>-1.347256422042847</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>4.710000038146973</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -18210,6 +19555,15 @@
       <c r="AL150" t="n">
         <v>0.4398162931203842</v>
       </c>
+      <c r="AM150" t="n">
+        <v>3.399044111792328</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>0.06553155183792114</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>5.169999934732914</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -18328,6 +19682,15 @@
       <c r="AL151" t="n">
         <v>0.51931531727314</v>
       </c>
+      <c r="AM151" t="n">
+        <v>3.645942581291861</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>-0.6689791083335876</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>4.600000014528632</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -18446,6 +19809,15 @@
       <c r="AL152" t="n">
         <v>0.506383728981018</v>
       </c>
+      <c r="AM152" t="n">
+        <v>4.225827305975702</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>-0.3904962539672852</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>3.899999933317304</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -18564,6 +19936,15 @@
       <c r="AL153" t="n">
         <v>0.5396725475788117</v>
       </c>
+      <c r="AM153" t="n">
+        <v>1.893894133472422</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>0.7846522331237793</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>4.319999966770411</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -18682,6 +20063,15 @@
       <c r="AL154" t="n">
         <v>0.4979766458272934</v>
       </c>
+      <c r="AM154" t="n">
+        <v>3.32121791982967</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>-0.5225774645805359</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>3.480000032112002</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -18800,6 +20190,15 @@
       <c r="AL155" t="n">
         <v>0.3891272872686386</v>
       </c>
+      <c r="AM155" t="n">
+        <v>3.45019663423971</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>-0.8179688453674316</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>3.45000003837049</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -18918,6 +20317,15 @@
       <c r="AL156" t="n">
         <v>0.4560998380184174</v>
       </c>
+      <c r="AM156" t="n">
+        <v>3.794261262128892</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>-0.4266620278358459</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>3.909999998286366</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -19036,6 +20444,15 @@
       <c r="AL157" t="n">
         <v>0.5945309460163116</v>
       </c>
+      <c r="AM157" t="n">
+        <v>4.871732011747564</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>-0.874179482460022</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>4.810000032186508</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -19154,6 +20571,15 @@
       <c r="AL158" t="n">
         <v>0.4072397768497467</v>
       </c>
+      <c r="AM158" t="n">
+        <v>3.428554709300867</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>-0.7438747882843018</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>4.099999951198697</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -19272,6 +20698,15 @@
       <c r="AL159" t="n">
         <v>0.4842511057853699</v>
       </c>
+      <c r="AM159" t="n">
+        <v>3.708474649482741</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>-0.2490408420562744</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>4.440000042319298</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -19390,6 +20825,15 @@
       <c r="AL160" t="n">
         <v>0.3828838050365448</v>
       </c>
+      <c r="AM160" t="n">
+        <v>3.554285231874889</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>0.2743610739707947</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>4.209999972954392</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -19508,6 +20952,15 @@
       <c r="AL161" t="n">
         <v>0.4692937403917313</v>
       </c>
+      <c r="AM161" t="n">
+        <v>3.124343054850696</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>-0.5359978675842285</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>4.109999941661954</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -19626,6 +21079,15 @@
       <c r="AL162" t="n">
         <v>0.5138385921716691</v>
       </c>
+      <c r="AM162" t="n">
+        <v>5.172704874676883</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>-0.461603581905365</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>3.800000034272671</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -19744,6 +21206,15 @@
       <c r="AL163" t="n">
         <v>0.413828307390213</v>
       </c>
+      <c r="AM163" t="n">
+        <v>3.30886748144324</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>-0.4571799039840698</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>3.859999995678663</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -19862,6 +21333,15 @@
       <c r="AL164" t="n">
         <v>0.4689090520143509</v>
       </c>
+      <c r="AM164" t="n">
+        <v>2.614053436878379</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>-0.7431478500366211</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>3.770000096410513</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -19980,6 +21460,15 @@
       <c r="AL165" t="n">
         <v>0.4443635106086731</v>
       </c>
+      <c r="AM165" t="n">
+        <v>1.990804146480479</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>-0.6959496140480042</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>3.929999966174364</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -20098,6 +21587,15 @@
       <c r="AL166" t="n">
         <v>0.6400270104408264</v>
       </c>
+      <c r="AM166" t="n">
+        <v>2.904617998864195</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>0.3392655849456787</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>4.379999961704016</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -20216,6 +21714,15 @@
       <c r="AL167" t="n">
         <v>0.6378160655498505</v>
       </c>
+      <c r="AM167" t="n">
+        <v>4.770256329884541</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>-0.8154063820838928</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>5.05999993532896</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -20334,6 +21841,15 @@
       <c r="AL168" t="n">
         <v>0.5336414635181427</v>
       </c>
+      <c r="AM168" t="n">
+        <v>3.668411099200972</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>-0.6269765496253967</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>5.060000002384186</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -20452,6 +21968,15 @@
       <c r="AL169" t="n">
         <v>0.5821390569210052</v>
       </c>
+      <c r="AM169" t="n">
+        <v>3.509318086358366</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>-0.494296669960022</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>4.079999977722764</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -20570,6 +22095,15 @@
       <c r="AL170" t="n">
         <v>0.5161716103553772</v>
       </c>
+      <c r="AM170" t="n">
+        <v>2.614053436878379</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>-0.4466701149940491</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>4.009999873116612</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -20688,6 +22222,15 @@
       <c r="AL171" t="n">
         <v>0.4829365342855453</v>
       </c>
+      <c r="AM171" t="n">
+        <v>3.371015388192085</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>-0.1781460642814636</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>4.560000067576766</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -20806,6 +22349,15 @@
       <c r="AL172" t="n">
         <v>0.6394230306148529</v>
       </c>
+      <c r="AM172" t="n">
+        <v>4.155157002264916</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>-0.06551682949066162</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>3.919999970123172</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -20924,6 +22476,15 @@
       <c r="AL173" t="n">
         <v>0.4583697706460953</v>
       </c>
+      <c r="AM173" t="n">
+        <v>3.040022169150661</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>-1.05020010471344</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>4.670000096783042</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -21042,6 +22603,15 @@
       <c r="AL174" t="n">
         <v>0.6882783710956574</v>
       </c>
+      <c r="AM174" t="n">
+        <v>5.936951708951002</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>-0.5415527820587158</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>4.219999935477972</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -21160,6 +22730,15 @@
       <c r="AL175" t="n">
         <v>0.3967267870903015</v>
       </c>
+      <c r="AM175" t="n">
+        <v>4.643050487483801</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>-0.2884961366653442</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>3.9499999769032</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -21278,6 +22857,15 @@
       <c r="AL176" t="n">
         <v>0.6343896746635437</v>
       </c>
+      <c r="AM176" t="n">
+        <v>2.904617998864195</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>-0.7593463659286499</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>4.880000092089176</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -21396,6 +22984,15 @@
       <c r="AL177" t="n">
         <v>0.3042162120342254</v>
       </c>
+      <c r="AM177" t="n">
+        <v>3.032196831638704</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>-0.4614163041114807</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>4.470000041648746</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -21514,6 +23111,15 @@
       <c r="AL178" t="n">
         <v>0.5350265681743622</v>
       </c>
+      <c r="AM178" t="n">
+        <v>4.934793021554251</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>-0.7096052765846252</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>4.429999981075525</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -21632,6 +23238,13 @@
       <c r="AL179" t="n">
         <v>0.3519233793020248</v>
       </c>
+      <c r="AM179" t="inlineStr"/>
+      <c r="AN179" t="n">
+        <v>-0.3537163734436035</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>3.480000017210841</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -21750,6 +23363,15 @@
       <c r="AL180" t="n">
         <v>0.4110186994075775</v>
       </c>
+      <c r="AM180" t="n">
+        <v>3.155157002264916</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>0.2447139620780945</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>3.870000082999468</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -21868,6 +23490,15 @@
       <c r="AL181" t="n">
         <v>0.4573336660861969</v>
       </c>
+      <c r="AM181" t="n">
+        <v>4.845838463156363</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>-0.7719907164573669</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>4.509999936446548</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -21986,6 +23617,15 @@
       <c r="AL182" t="n">
         <v>0.4696547299623489</v>
       </c>
+      <c r="AM182" t="n">
+        <v>3.20031916102311</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>0.04120981693267822</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>4.419999923557043</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -22104,6 +23744,15 @@
       <c r="AL183" t="n">
         <v>0.4778591334819794</v>
       </c>
+      <c r="AM183" t="n">
+        <v>2.893894133472422</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>-0.4627391695976257</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>3.97999994084239</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -22222,6 +23871,15 @@
       <c r="AL184" t="n">
         <v>0.4962590396404266</v>
       </c>
+      <c r="AM184" t="n">
+        <v>1.768955396864122</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>-0.3012799024581909</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>3.810000080615282</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -22340,6 +23998,15 @@
       <c r="AL185" t="n">
         <v>0.5080632537603378</v>
       </c>
+      <c r="AM185" t="n">
+        <v>2.935286818630647</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>-0.7921128273010254</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>4.299999989569187</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -22458,6 +24125,15 @@
       <c r="AL186" t="n">
         <v>0.3986071318387985</v>
       </c>
+      <c r="AM186" t="n">
+        <v>3.559005870547474</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>0.1561554670333862</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>3.639999981969595</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -22576,6 +24252,15 @@
       <c r="AL187" t="n">
         <v>0.5552849769592285</v>
       </c>
+      <c r="AM187" t="n">
+        <v>2.467925401200141</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>0.4614693522453308</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>4.430000094696879</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -22694,6 +24379,15 @@
       <c r="AL188" t="n">
         <v>0.6497766852378846</v>
       </c>
+      <c r="AM188" t="n">
+        <v>2.706807490115278</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>-0.2486915588378906</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>3.980000000447035</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -22812,6 +24506,15 @@
       <c r="AL189" t="n">
         <v>0.5496366322040558</v>
       </c>
+      <c r="AM189" t="n">
+        <v>3.172647734425251</v>
+      </c>
+      <c r="AN189" t="n">
+        <v>-0.7369884252548218</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>4.369999950751662</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -22930,6 +24633,15 @@
       <c r="AL190" t="n">
         <v>0.4106743693351745</v>
       </c>
+      <c r="AM190" t="n">
+        <v>4.110060035758416</v>
+      </c>
+      <c r="AN190" t="n">
+        <v>-1.163486242294312</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>3.799999952316284</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -23048,6 +24760,15 @@
       <c r="AL191" t="n">
         <v>0.4450990945100785</v>
       </c>
+      <c r="AM191" t="n">
+        <v>2.860035866211455</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>-0.5310866832733154</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>3.860000006854534</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -23166,6 +24887,15 @@
       <c r="AL192" t="n">
         <v>0.4138745188713074</v>
       </c>
+      <c r="AM192" t="n">
+        <v>2.768955396864123</v>
+      </c>
+      <c r="AN192" t="n">
+        <v>-0.6457111239433289</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>4.020000012591481</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -23284,6 +25014,15 @@
       <c r="AL193" t="n">
         <v>0.5087488502264023</v>
       </c>
+      <c r="AM193" t="n">
+        <v>3.399044111792328</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>-0.6962227821350098</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>4.100000014528632</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -23402,6 +25141,15 @@
       <c r="AL194" t="n">
         <v>0.6609843373298645</v>
       </c>
+      <c r="AM194" t="n">
+        <v>4.80170842714918</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>-0.5455721020698547</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>4.009999942034483</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -23520,6 +25268,15 @@
       <c r="AL195" t="n">
         <v>0.4755199044942856</v>
       </c>
+      <c r="AM195" t="n">
+        <v>3.20031916102311</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>-0.6274046301841736</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>4.399999931454659</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -23638,6 +25395,15 @@
       <c r="AL196" t="n">
         <v>0.5422135829925537</v>
       </c>
+      <c r="AM196" t="n">
+        <v>3.476525572962059</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>-0.8594207167625427</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>3.5499999653548</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -23756,6 +25522,15 @@
       <c r="AL197" t="n">
         <v>0.4542019098997116</v>
       </c>
+      <c r="AM197" t="n">
+        <v>4.432342185182639</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>-0.9086742401123047</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>4.090000007301569</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -23874,6 +25649,13 @@
       <c r="AL198" t="n">
         <v>0.4713584393262863</v>
       </c>
+      <c r="AM198" t="inlineStr"/>
+      <c r="AN198" t="n">
+        <v>0.05173647403717041</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>3.590000009164214</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -23992,6 +25774,15 @@
       <c r="AL199" t="n">
         <v>0.5061364471912384</v>
       </c>
+      <c r="AM199" t="n">
+        <v>4.201390171385635</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>-0.6844760775566101</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>3.640000026673079</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -24110,6 +25901,15 @@
       <c r="AL200" t="n">
         <v>0.4292473942041397</v>
       </c>
+      <c r="AM200" t="n">
+        <v>3.428554709300867</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>-0.9461390972137451</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>4.609999947249889</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -24228,6 +26028,15 @@
       <c r="AL201" t="n">
         <v>0.4156417787075043</v>
       </c>
+      <c r="AM201" t="n">
+        <v>3.221253067858753</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>-0.5658535957336426</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>4.290000004693866</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -24346,6 +26155,15 @@
       <c r="AL202" t="n">
         <v>0.5210931777954102</v>
       </c>
+      <c r="AM202" t="n">
+        <v>2.935286818630647</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>-1.295145630836487</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>4.079999966546893</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -24464,6 +26282,15 @@
       <c r="AL203" t="n">
         <v>0.5398101091384888</v>
       </c>
+      <c r="AM203" t="n">
+        <v>3.611980428255514</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>-0.741172730922699</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>4.140000035986304</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -24582,6 +26409,15 @@
       <c r="AL204" t="n">
         <v>0.4684270948171615</v>
       </c>
+      <c r="AM204" t="n">
+        <v>3.873897505056169</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>-1.069936156272888</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>4.610000122338533</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -24700,6 +26536,15 @@
       <c r="AL205" t="n">
         <v>0.4483773320913315</v>
       </c>
+      <c r="AM205" t="n">
+        <v>4.115308371314761</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>-0.03035813570022583</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>4.740000015124679</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -24818,6 +26663,15 @@
       <c r="AL206" t="n">
         <v>0.5765188872814179</v>
       </c>
+      <c r="AM206" t="n">
+        <v>2.768955396864123</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>-0.7572699189186096</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>4.159999942407012</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -24936,6 +26790,15 @@
       <c r="AL207" t="n">
         <v>0.4265878587961197</v>
       </c>
+      <c r="AM207" t="n">
+        <v>2.653561978162053</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>-0.5921872854232788</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>3.889999952167273</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -25054,6 +26917,15 @@
       <c r="AL208" t="n">
         <v>0.5392152369022369</v>
       </c>
+      <c r="AM208" t="n">
+        <v>3.040022169150661</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>-0.6352012157440186</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>4.150000004097819</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -25172,6 +27044,15 @@
       <c r="AL209" t="n">
         <v>0.5831151127815246</v>
       </c>
+      <c r="AM209" t="n">
+        <v>3.757216993592878</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>-0.5813251137733459</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>3.980000028386712</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -25290,6 +27171,15 @@
       <c r="AL210" t="n">
         <v>0.523535031080246</v>
       </c>
+      <c r="AM210" t="n">
+        <v>3.069985392528104</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>-0.3301720023155212</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>3.659999910742044</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -25408,6 +27298,15 @@
       <c r="AL211" t="n">
         <v>0.4845946520566941</v>
       </c>
+      <c r="AM211" t="n">
+        <v>3.917146593106134</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>-0.8755178451538086</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>4.129999984055758</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -25526,6 +27425,15 @@
       <c r="AL212" t="n">
         <v>0.4319859653711319</v>
       </c>
+      <c r="AM212" t="n">
+        <v>2.333226827302685</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>-0.6538822054862976</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>4.390000065788627</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -25644,6 +27552,15 @@
       <c r="AL213" t="n">
         <v>0.5714905440807343</v>
       </c>
+      <c r="AM213" t="n">
+        <v>3.803717503123334</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>-1.343419194221497</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>4.239999962970614</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -25762,6 +27679,15 @@
       <c r="AL214" t="n">
         <v>0.4901641577482224</v>
       </c>
+      <c r="AM214" t="n">
+        <v>2.495954124800384</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>-0.3691878318786621</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>4.350000020116568</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -25880,6 +27806,15 @@
       <c r="AL215" t="n">
         <v>0.445492273569107</v>
       </c>
+      <c r="AM215" t="n">
+        <v>2.723197906303447</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>-0.4943220615386963</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>4.359999980777502</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -25998,6 +27933,15 @@
       <c r="AL216" t="n">
         <v>0.532190465927124</v>
       </c>
+      <c r="AM216" t="n">
+        <v>3.534872190830754</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>-0.7445116639137268</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>4.769999945536256</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -26116,6 +28060,15 @@
       <c r="AL217" t="n">
         <v>0.5474159210920334</v>
       </c>
+      <c r="AM217" t="n">
+        <v>2.738992173486679</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>-0.8357890844345093</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>4.789999919012189</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -26234,6 +28187,15 @@
       <c r="AL218" t="n">
         <v>0.4254859328269959</v>
       </c>
+      <c r="AM218" t="n">
+        <v>3.130683232881715</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>-0.4838881492614746</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>3.720000054687262</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -26352,6 +28314,15 @@
       <c r="AL219" t="n">
         <v>0.5338391929864883</v>
       </c>
+      <c r="AM219" t="n">
+        <v>3.062686153786604</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>-0.7782895565032959</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>4.230000024661422</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -26470,6 +28441,15 @@
       <c r="AL220" t="n">
         <v>0.4666900753974915</v>
       </c>
+      <c r="AM220" t="n">
+        <v>3.255621969490015</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>-1.038078784942627</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>4.460000034421682</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -26588,6 +28568,15 @@
       <c r="AL221" t="n">
         <v>0.5641340255737305</v>
       </c>
+      <c r="AM221" t="n">
+        <v>3.579635872074686</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>-0.858147144317627</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>4.80999999679625</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -26706,6 +28695,15 @@
       <c r="AL222" t="n">
         <v>0.4494649410247803</v>
       </c>
+      <c r="AM222" t="n">
+        <v>3.395637863100417</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>0.1239414215087891</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>4.04000006057322</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -26824,6 +28822,15 @@
       <c r="AL223" t="n">
         <v>0.724435955286026</v>
       </c>
+      <c r="AM223" t="n">
+        <v>4.010335831011734</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>-0.7356501221656799</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>3.839999992400408</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -26942,6 +28949,15 @@
       <c r="AL224" t="n">
         <v>0.5341960340738297</v>
       </c>
+      <c r="AM224" t="n">
+        <v>2.768955396864123</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>-0.6988603472709656</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>4.480000082403421</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -27060,6 +29076,15 @@
       <c r="AL225" t="n">
         <v>0.6414871513843536</v>
       </c>
+      <c r="AM225" t="n">
+        <v>5.806116190004838</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>-0.846860945224762</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>4.650000026449561</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -27178,6 +29203,15 @@
       <c r="AL226" t="n">
         <v>0.4931464254856109</v>
       </c>
+      <c r="AM226" t="n">
+        <v>3.642082160478623</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>-0.9273552894592285</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>4.089999994263053</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -27296,6 +29330,15 @@
       <c r="AL227" t="n">
         <v>0.4273907631635666</v>
       </c>
+      <c r="AM227" t="n">
+        <v>2.136932182158717</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>-0.2075667381286621</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>4.360000055283308</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -27414,6 +29457,15 @@
       <c r="AL228" t="n">
         <v>0.5275179862976074</v>
       </c>
+      <c r="AM228" t="n">
+        <v>4.782775347501246</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>-0.4214268922805786</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>4.080000067129731</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -27532,6 +29584,15 @@
       <c r="AL229" t="n">
         <v>0.5254979580640793</v>
       </c>
+      <c r="AM229" t="n">
+        <v>2.796984120464366</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>-1.040053844451904</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>4.059999966993928</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -27650,6 +29711,15 @@
       <c r="AL230" t="n">
         <v>0.7097997665405273</v>
       </c>
+      <c r="AM230" t="n">
+        <v>5.685970494786348</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>-0.6292503476142883</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>4.209999989718199</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -27768,6 +29838,15 @@
       <c r="AL231" t="n">
         <v>0.4953025966882706</v>
       </c>
+      <c r="AM231" t="n">
+        <v>2.467925401200141</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>-0.2516782283782959</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>4.260000040754676</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -27886,6 +29965,15 @@
       <c r="AL232" t="n">
         <v>0.5874916672706604</v>
       </c>
+      <c r="AM232" t="n">
+        <v>3.607804487601378</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>-0.2546423673629761</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>3.580000024288893</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -28004,6 +30092,15 @@
       <c r="AL233" t="n">
         <v>0.5454248368740082</v>
       </c>
+      <c r="AM233" t="n">
+        <v>4.288783390639841</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>-1.012735486030579</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>4.149999955669045</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -28122,6 +30219,15 @@
       <c r="AL234" t="n">
         <v>0.4412462651729584</v>
       </c>
+      <c r="AM234" t="n">
+        <v>2.823313059186715</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>-0.9848281145095825</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>4.199999893084168</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -28240,6 +30346,15 @@
       <c r="AL235" t="n">
         <v>0.4776304185390473</v>
       </c>
+      <c r="AM235" t="n">
+        <v>2.522283063522734</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>-0.3544290065765381</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>4.179999956861138</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -28358,6 +30473,15 @@
       <c r="AL236" t="n">
         <v>0.4937158614397049</v>
       </c>
+      <c r="AM236" t="n">
+        <v>3.246076651583785</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>-0.8798680901527405</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>5.079999946057796</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -28476,6 +30600,15 @@
       <c r="AL237" t="n">
         <v>0.4680021703243256</v>
       </c>
+      <c r="AM237" t="n">
+        <v>2.592864137808441</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>-0.3964316248893738</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>4.270000061020255</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -28594,6 +30727,15 @@
       <c r="AL238" t="n">
         <v>0.5456074059009552</v>
       </c>
+      <c r="AM238" t="n">
+        <v>4.314674753020988</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>-1.139920592308044</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>3.960000002756715</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -28712,6 +30854,15 @@
       <c r="AL239" t="n">
         <v>0.5806442201137543</v>
       </c>
+      <c r="AM239" t="n">
+        <v>2.371015388192085</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>-0.04810363054275513</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>4.090000044554472</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -28830,6 +30981,15 @@
       <c r="AL240" t="n">
         <v>0.5027344912290573</v>
       </c>
+      <c r="AM240" t="n">
+        <v>3.53734680995861</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>-0.6804245114326477</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>4.369999909773469</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -28948,6 +31108,15 @@
       <c r="AL241" t="n">
         <v>0.5399615943431855</v>
       </c>
+      <c r="AM241" t="n">
+        <v>4.183371599817025</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>-0.5274632573127747</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>3.500000007450581</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -29066,6 +31235,15 @@
       <c r="AL242" t="n">
         <v>0.5937519013881684</v>
       </c>
+      <c r="AM242" t="n">
+        <v>3.824588521136958</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>0.1527884006500244</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>4.390000075101852</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -29184,6 +31362,15 @@
       <c r="AL243" t="n">
         <v>0.6117399096488952</v>
       </c>
+      <c r="AM243" t="n">
+        <v>4.977486326259984</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>-1.674467325210571</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>3.13000001758337</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -29302,6 +31489,15 @@
       <c r="AL244" t="n">
         <v>0.5236718088388443</v>
       </c>
+      <c r="AM244" t="n">
+        <v>3.801036664475563</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>-0.79371178150177</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>4.130000052973628</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -29420,6 +31616,15 @@
       <c r="AL245" t="n">
         <v>0.586126184463501</v>
       </c>
+      <c r="AM245" t="n">
+        <v>5.343411100617</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>-0.7448762655258179</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>4.460000032559037</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -29538,6 +31743,15 @@
       <c r="AL246" t="n">
         <v>0.5470517873764038</v>
       </c>
+      <c r="AM246" t="n">
+        <v>2.495954124800384</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>0.02545630931854248</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>3.640000056475401</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -29656,6 +31870,15 @@
       <c r="AL247" t="n">
         <v>0.5834384500980377</v>
       </c>
+      <c r="AM247" t="n">
+        <v>2.437962177822698</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>0.01886880397796631</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>4.200000086799264</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -29774,6 +31997,15 @@
       <c r="AL248" t="n">
         <v>0.6138859331607819</v>
       </c>
+      <c r="AM248" t="n">
+        <v>4.351397560045728</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>-1.376978397369385</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>4.669999927282333</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -29892,6 +32124,15 @@
       <c r="AL249" t="n">
         <v>0.4969883054494858</v>
       </c>
+      <c r="AM249" t="n">
+        <v>2.246076651583785</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>0.06420451402664185</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>4.200000027194619</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -30010,6 +32251,15 @@
       <c r="AL250" t="n">
         <v>0.6291831493377685</v>
       </c>
+      <c r="AM250" t="n">
+        <v>4.151572708341607</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>-0.8000107407569885</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>3.860000114887953</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -30128,6 +32378,15 @@
       <c r="AL251" t="n">
         <v>0.5160221636295319</v>
       </c>
+      <c r="AM251" t="n">
+        <v>3.498660018176309</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>-1.142831325531006</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>3.890000034123659</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -30246,6 +32505,15 @@
       <c r="AL252" t="n">
         <v>0.3883543312549591</v>
       </c>
+      <c r="AM252" t="n">
+        <v>2.467925401200141</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>-0.1439937353134155</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>4.140000035986304</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -30364,6 +32632,15 @@
       <c r="AL253" t="n">
         <v>0.4563464432954788</v>
       </c>
+      <c r="AM253" t="n">
+        <v>2.570587743097289</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>-0.8203935027122498</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>4.099999947473407</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -30482,6 +32759,15 @@
       <c r="AL254" t="n">
         <v>0.5189856648445129</v>
       </c>
+      <c r="AM254" t="n">
+        <v>3.867021987072121</v>
+      </c>
+      <c r="AN254" t="n">
+        <v>-0.7595056295394897</v>
+      </c>
+      <c r="AO254" t="n">
+        <v>4.040000008419156</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -30600,6 +32886,15 @@
       <c r="AL255" t="n">
         <v>0.5185494363307953</v>
       </c>
+      <c r="AM255" t="n">
+        <v>4.440745135253817</v>
+      </c>
+      <c r="AN255" t="n">
+        <v>-1.531576633453369</v>
+      </c>
+      <c r="AO255" t="n">
+        <v>4.089999990537763</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -30718,6 +33013,15 @@
       <c r="AL256" t="n">
         <v>0.6083523750305175</v>
       </c>
+      <c r="AM256" t="n">
+        <v>3.084225831642714</v>
+      </c>
+      <c r="AN256" t="n">
+        <v>-0.07564622163772583</v>
+      </c>
+      <c r="AO256" t="n">
+        <v>4.08999995328486</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -30836,6 +33140,15 @@
       <c r="AL257" t="n">
         <v>0.6148560643196106</v>
       </c>
+      <c r="AM257" t="n">
+        <v>3.954591973826034</v>
+      </c>
+      <c r="AN257" t="n">
+        <v>-0.535062313079834</v>
+      </c>
+      <c r="AO257" t="n">
+        <v>4.28999993763864</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -30954,6 +33267,15 @@
       <c r="AL258" t="n">
         <v>0.5606395661830902</v>
       </c>
+      <c r="AM258" t="n">
+        <v>2.954591973826034</v>
+      </c>
+      <c r="AN258" t="n">
+        <v>1.051317572593689</v>
+      </c>
+      <c r="AO258" t="n">
+        <v>4.720000071451068</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -31072,6 +33394,15 @@
       <c r="AL259" t="n">
         <v>0.5055728912353515</v>
       </c>
+      <c r="AM259" t="n">
+        <v>3.360020003890622</v>
+      </c>
+      <c r="AN259" t="n">
+        <v>-0.9805044531822205</v>
+      </c>
+      <c r="AO259" t="n">
+        <v>4.110000031068921</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -31190,6 +33521,15 @@
       <c r="AL260" t="n">
         <v>0.5406566441059113</v>
       </c>
+      <c r="AM260" t="n">
+        <v>3.264961995744159</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>-0.5251892805099487</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>4.650000046938658</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -31308,6 +33648,15 @@
       <c r="AL261" t="n">
         <v>0.5066993862390519</v>
       </c>
+      <c r="AM261" t="n">
+        <v>3.85531522753887</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>-0.5583303570747375</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>3.580000091344118</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -31426,6 +33775,15 @@
       <c r="AL262" t="n">
         <v>0.5845506310462951</v>
       </c>
+      <c r="AM262" t="n">
+        <v>4.618374810661022</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>-0.5836678743362427</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>4.209999976679683</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -31544,6 +33902,15 @@
       <c r="AL263" t="n">
         <v>0.44935342669487</v>
       </c>
+      <c r="AM263" t="n">
+        <v>2.738992173486679</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>-0.7245035767555237</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>4.429999869316816</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -31662,6 +34029,15 @@
       <c r="AL264" t="n">
         <v>0.4893413543701172</v>
       </c>
+      <c r="AM264" t="n">
+        <v>3.618170003073211</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>-0.8930478096008301</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>4.080000039190054</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -31780,6 +34156,15 @@
       <c r="AL265" t="n">
         <v>0.4841631323099136</v>
       </c>
+      <c r="AM265" t="n">
+        <v>4.365918831172704</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>-0.7391228675842285</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>4.240000089630485</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -31898,6 +34283,15 @@
       <c r="AL266" t="n">
         <v>0.5330999046564102</v>
       </c>
+      <c r="AM266" t="n">
+        <v>4.332040769719171</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>-0.465376615524292</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>4.039999959990382</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -32016,6 +34410,15 @@
       <c r="AL267" t="n">
         <v>0.554176339507103</v>
       </c>
+      <c r="AM267" t="n">
+        <v>5.22461221220501</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>-1.035730123519897</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>4.370000038295984</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -32134,6 +34537,15 @@
       <c r="AL268" t="n">
         <v>0.4807062596082687</v>
       </c>
+      <c r="AM268" t="n">
+        <v>3.136932182158717</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>-1.461721539497375</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>4.739999923855066</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -32252,6 +34664,15 @@
       <c r="AL269" t="n">
         <v>0.4798133939504624</v>
       </c>
+      <c r="AM269" t="n">
+        <v>4.52559150510997</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>-0.6973031759262085</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>4.129999915137887</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -32370,6 +34791,15 @@
       <c r="AL270" t="n">
         <v>0.4372873574495316</v>
       </c>
+      <c r="AM270" t="n">
+        <v>2.653561978162053</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>-0.1469042897224426</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>4.150000009685755</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -32488,6 +34918,15 @@
       <c r="AL271" t="n">
         <v>0.4510327190160751</v>
       </c>
+      <c r="AM271" t="n">
+        <v>2.999404318242396</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>-0.1876444220542908</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>3.860000114887953</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -32606,6 +35045,15 @@
       <c r="AL272" t="n">
         <v>0.5271604716777801</v>
       </c>
+      <c r="AM272" t="n">
+        <v>2.069985392528103</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>-0.2129132151603699</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>4.129999985918403</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -32724,6 +35172,15 @@
       <c r="AL273" t="n">
         <v>0.5682744860649109</v>
       </c>
+      <c r="AM273" t="n">
+        <v>3.143092490863535</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>-0.2982932329177856</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>4.160000005736947</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -32842,6 +35299,15 @@
       <c r="AL274" t="n">
         <v>0.5898767113685608</v>
       </c>
+      <c r="AM274" t="n">
+        <v>3.476525572962059</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>0.1088836789131165</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>4.640000006183982</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -32960,6 +35426,13 @@
       <c r="AL275" t="n">
         <v>0.4286298483610153</v>
       </c>
+      <c r="AM275" t="inlineStr"/>
+      <c r="AN275" t="n">
+        <v>-1.23517370223999</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>5.710000149905682</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -33078,6 +35551,15 @@
       <c r="AL276" t="n">
         <v>0.5321727484464646</v>
       </c>
+      <c r="AM276" t="n">
+        <v>2.935286818630647</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>-0.28438401222229</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>3.870000049471855</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -33196,6 +35678,15 @@
       <c r="AL277" t="n">
         <v>0.4750049650669098</v>
       </c>
+      <c r="AM277" t="n">
+        <v>3.236316814294629</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>0.1912604570388794</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>3.879999997094274</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -33314,6 +35805,15 @@
       <c r="AL278" t="n">
         <v>0.5966753900051117</v>
       </c>
+      <c r="AM278" t="n">
+        <v>3.880665867738667</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>-0.1427087783813477</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>3.960000021383166</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -33432,6 +35932,15 @@
       <c r="AL279" t="n">
         <v>0.5336092740297318</v>
       </c>
+      <c r="AM279" t="n">
+        <v>5.266898138239696</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>-0.2700379490852356</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>4.120000015944242</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -33550,6 +36059,15 @@
       <c r="AL280" t="n">
         <v>0.5839425563812256</v>
       </c>
+      <c r="AM280" t="n">
+        <v>5.597121007620586</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>0.1430016756057739</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>4.289999993517995</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -33668,6 +36186,15 @@
       <c r="AL281" t="n">
         <v>0.4176803916692734</v>
       </c>
+      <c r="AM281" t="n">
+        <v>2.882898749170959</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>-0.1118629574775696</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>4.14999994635582</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -33786,6 +36313,15 @@
       <c r="AL282" t="n">
         <v>0.5098350465297699</v>
       </c>
+      <c r="AM282" t="n">
+        <v>2.29183414214446</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>-0.1751595735549927</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>4.09999992325902</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -33904,6 +36440,15 @@
       <c r="AL283" t="n">
         <v>0.4781331777572632</v>
       </c>
+      <c r="AM283" t="n">
+        <v>3.470811089437629</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>-0.8616945147514343</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>3.719999985769391</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -34022,6 +36567,15 @@
       <c r="AL284" t="n">
         <v>0.5770614266395568</v>
       </c>
+      <c r="AM284" t="n">
+        <v>4.612188174962132</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>-1.228211402893066</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>4.510000078007579</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -34140,6 +36694,15 @@
       <c r="AL285" t="n">
         <v>0.4737931817770004</v>
       </c>
+      <c r="AM285" t="n">
+        <v>3.210912234520534</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>-0.5707011222839355</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>6.949999921023846</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -34258,6 +36821,15 @@
       <c r="AL286" t="n">
         <v>0.4509456872940064</v>
       </c>
+      <c r="AM286" t="n">
+        <v>2.136932182158717</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>-0.4449936747550964</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>4.629999941214919</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -34376,6 +36948,15 @@
       <c r="AL287" t="n">
         <v>0.6571773648262024</v>
       </c>
+      <c r="AM287" t="n">
+        <v>5.815762610417863</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>-1.352515935897827</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>3.939999995753169</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -34494,6 +37075,15 @@
       <c r="AL288" t="n">
         <v>0.5504900127649307</v>
       </c>
+      <c r="AM288" t="n">
+        <v>3.341052164814641</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>-0.5002195239067078</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>4.290000092238188</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -34612,6 +37202,15 @@
       <c r="AL289" t="n">
         <v>0.7376238584518433</v>
       </c>
+      <c r="AM289" t="n">
+        <v>4.646710564660694</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>-0.4795631766319275</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>3.920000065118074</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -34730,6 +37329,15 @@
       <c r="AL290" t="n">
         <v>0.6428706586360932</v>
       </c>
+      <c r="AM290" t="n">
+        <v>1.893894133472422</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>-0.9762554168701172</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>4.04999996162951</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -34848,6 +37456,15 @@
       <c r="AL291" t="n">
         <v>0.6991054236888885</v>
       </c>
+      <c r="AM291" t="n">
+        <v>5.089240191820842</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>-0.4327974915504456</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>3.500000033527613</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -34966,6 +37583,15 @@
       <c r="AL292" t="n">
         <v>0.5502513527870179</v>
       </c>
+      <c r="AM292" t="n">
+        <v>3.104747498787316</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>0.1032082438468933</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>4.269999956712127</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -35084,6 +37710,15 @@
       <c r="AL293" t="n">
         <v>0.4875731885433197</v>
       </c>
+      <c r="AM293" t="n">
+        <v>3.755727131130367</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>-1.199395298957825</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>3.529999969527125</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -35202,6 +37837,15 @@
       <c r="AL294" t="n">
         <v>0.3886570483446121</v>
       </c>
+      <c r="AM294" t="n">
+        <v>3.016110011745249</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>-0.4973086714744568</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>4.99999987706542</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -35320,6 +37964,15 @@
       <c r="AL295" t="n">
         <v>0.6553049743175506</v>
       </c>
+      <c r="AM295" t="n">
+        <v>4.467925401200141</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>-0.6790114045143127</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>4.249999916180968</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -35438,6 +38091,15 @@
       <c r="AL296" t="n">
         <v>0.6248229205608368</v>
       </c>
+      <c r="AM296" t="n">
+        <v>5.636717421514323</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>-0.9056342840194702</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>3.770000066608191</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -35556,6 +38218,15 @@
       <c r="AL297" t="n">
         <v>0.5648155033588409</v>
       </c>
+      <c r="AM297" t="n">
+        <v>5.517969864618105</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>0.5024957656860352</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>4.049999969080091</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -35674,6 +38345,15 @@
       <c r="AL298" t="n">
         <v>0.4667615711688995</v>
       </c>
+      <c r="AM298" t="n">
+        <v>3.143092490863535</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>-0.9540368318557739</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>3.80999999679625</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -35792,6 +38472,15 @@
       <c r="AL299" t="n">
         <v>0.7693713843822479</v>
       </c>
+      <c r="AM299" t="n">
+        <v>4.978023376388483</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>-0.7873862981796265</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>4.7000000346452</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -35910,6 +38599,15 @@
       <c r="AL300" t="n">
         <v>0.5061555624008178</v>
       </c>
+      <c r="AM300" t="n">
+        <v>5.161417849857884</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>-0.4715625643730164</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>4.64999988861382</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -36028,6 +38726,15 @@
       <c r="AL301" t="n">
         <v>0.4246001958847046</v>
       </c>
+      <c r="AM301" t="n">
+        <v>2.672045383856066</v>
+      </c>
+      <c r="AN301" t="n">
+        <v>-0.9756186008453369</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>4.200000049546361</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -36146,6 +38853,15 @@
       <c r="AL302" t="n">
         <v>0.613088208436966</v>
       </c>
+      <c r="AM302" t="n">
+        <v>3.785988736162903</v>
+      </c>
+      <c r="AN302" t="n">
+        <v>-1.014307737350464</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>3.879999984055758</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -36264,6 +38980,15 @@
       <c r="AL303" t="n">
         <v>0.4572856485843658</v>
       </c>
+      <c r="AM303" t="n">
+        <v>2.522283063522734</v>
+      </c>
+      <c r="AN303" t="n">
+        <v>-0.7047728300094604</v>
+      </c>
+      <c r="AO303" t="n">
+        <v>5.050000067800283</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -36382,6 +39107,15 @@
       <c r="AL304" t="n">
         <v>0.5835981667041779</v>
       </c>
+      <c r="AM304" t="n">
+        <v>5.296842962816827</v>
+      </c>
+      <c r="AN304" t="n">
+        <v>-0.5595546364784241</v>
+      </c>
+      <c r="AO304" t="n">
+        <v>4.609999969601631</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -36500,6 +39234,15 @@
       <c r="AL305" t="n">
         <v>0.5448070108890534</v>
       </c>
+      <c r="AM305" t="n">
+        <v>3.405777494451297</v>
+      </c>
+      <c r="AN305" t="n">
+        <v>-0.9302659034729004</v>
+      </c>
+      <c r="AO305" t="n">
+        <v>4.829999927431345</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -36618,6 +39361,15 @@
       <c r="AL306" t="n">
         <v>0.5319758057594299</v>
       </c>
+      <c r="AM306" t="n">
+        <v>4.353286621231653</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>-0.7536084055900574</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>3.840000096708536</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -36736,6 +39488,15 @@
       <c r="AL307" t="n">
         <v>0.5148507952690125</v>
       </c>
+      <c r="AM307" t="n">
+        <v>1.768955396864122</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>-0.3894311785697937</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>4.590000033378601</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -36854,6 +39615,15 @@
       <c r="AL308" t="n">
         <v>0.4539905339479446</v>
       </c>
+      <c r="AM308" t="n">
+        <v>3.811662135920179</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>-0.9805044531822205</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>4.47000010125339</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -36972,6 +39742,15 @@
       <c r="AL309" t="n">
         <v>0.5480401188135147</v>
       </c>
+      <c r="AM309" t="n">
+        <v>3.360020003890622</v>
+      </c>
+      <c r="AN309" t="n">
+        <v>-1.051424503326416</v>
+      </c>
+      <c r="AO309" t="n">
+        <v>4.910000007599592</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -37090,6 +39869,15 @@
       <c r="AL310" t="n">
         <v>0.5508153438568115</v>
       </c>
+      <c r="AM310" t="n">
+        <v>3.928322038497825</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>-0.7066187262535095</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>4.150000032037497</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -37208,6 +39996,15 @@
       <c r="AL311" t="n">
         <v>0.5552538752555847</v>
       </c>
+      <c r="AM311" t="n">
+        <v>3.313023441214398</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>-0.06011116504669189</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>4.460000045597553</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -37326,6 +40123,15 @@
       <c r="AL312" t="n">
         <v>0.4043160796165466</v>
       </c>
+      <c r="AM312" t="n">
+        <v>3.670232043092597</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>-0.6071811318397522</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>3.599999908357859</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -37444,6 +40250,15 @@
       <c r="AL313" t="n">
         <v>0.5129747599363327</v>
       </c>
+      <c r="AM313" t="n">
+        <v>2.547106647247766</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>-0.08739727735519409</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>4.039999973028898</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -37562,6 +40377,15 @@
       <c r="AL314" t="n">
         <v>0.3397438019514084</v>
       </c>
+      <c r="AM314" t="n">
+        <v>3.708474649482741</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>-1.378560900688171</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>4.989999983459711</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -37680,6 +40504,15 @@
       <c r="AL315" t="n">
         <v>0.7631560206413269</v>
       </c>
+      <c r="AM315" t="n">
+        <v>5.865934891430907</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>-0.8108091950416565</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>3.479999972507358</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -37798,6 +40631,15 @@
       <c r="AL316" t="n">
         <v>0.51372429728508</v>
       </c>
+      <c r="AM316" t="n">
+        <v>2.194924129136403</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>-0.466938853263855</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>4.059999911114573</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -37916,6 +40758,15 @@
       <c r="AL317" t="n">
         <v>0.3696469217538834</v>
       </c>
+      <c r="AM317" t="n">
+        <v>2.990804146480479</v>
+      </c>
+      <c r="AN317" t="n">
+        <v>0.4008997082710266</v>
+      </c>
+      <c r="AO317" t="n">
+        <v>4.289999997243285</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -38034,6 +40885,15 @@
       <c r="AL318" t="n">
         <v>0.4842016041278839</v>
       </c>
+      <c r="AM318" t="n">
+        <v>3.890624648907575</v>
+      </c>
+      <c r="AN318" t="n">
+        <v>-0.08114761114120483</v>
+      </c>
+      <c r="AO318" t="n">
+        <v>4.22999994456768</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -38152,6 +41012,15 @@
       <c r="AL319" t="n">
         <v>0.4915481269359588</v>
       </c>
+      <c r="AM319" t="n">
+        <v>4.597615293399442</v>
+      </c>
+      <c r="AN319" t="n">
+        <v>-0.06644231081008911</v>
+      </c>
+      <c r="AO319" t="n">
+        <v>4.169999899342656</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -38270,6 +41139,15 @@
       <c r="AL320" t="n">
         <v>0.4732324928045273</v>
       </c>
+      <c r="AM320" t="n">
+        <v>2.437962177822698</v>
+      </c>
+      <c r="AN320" t="n">
+        <v>-0.4439442157745361</v>
+      </c>
+      <c r="AO320" t="n">
+        <v>4.590000011026859</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -38388,6 +41266,15 @@
       <c r="AL321" t="n">
         <v>0.6617151319980621</v>
       </c>
+      <c r="AM321" t="n">
+        <v>3.136932182158717</v>
+      </c>
+      <c r="AN321" t="n">
+        <v>-0.7059818506240845</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>3.519999962300062</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -38506,6 +41393,15 @@
       <c r="AL322" t="n">
         <v>0.4202916085720062</v>
       </c>
+      <c r="AM322" t="n">
+        <v>3.047708997816951</v>
+      </c>
+      <c r="AN322" t="n">
+        <v>-0.7059818506240845</v>
+      </c>
+      <c r="AO322" t="n">
+        <v>4.919999994337559</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -38624,6 +41520,15 @@
       <c r="AL323" t="n">
         <v>0.4142325729131698</v>
       </c>
+      <c r="AM323" t="n">
+        <v>4.396662545798115</v>
+      </c>
+      <c r="AN323" t="n">
+        <v>-0.8560324311256409</v>
+      </c>
+      <c r="AO323" t="n">
+        <v>3.809999987483025</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -38742,6 +41647,15 @@
       <c r="AL324" t="n">
         <v>0.3920405089855194</v>
       </c>
+      <c r="AM324" t="n">
+        <v>3.055262135707397</v>
+      </c>
+      <c r="AN324" t="n">
+        <v>-0.7460851669311523</v>
+      </c>
+      <c r="AO324" t="n">
+        <v>3.949999932199717</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -38860,6 +41774,15 @@
       <c r="AL325" t="n">
         <v>0.5426480293273925</v>
       </c>
+      <c r="AM325" t="n">
+        <v>3.41240807335031</v>
+      </c>
+      <c r="AN325" t="n">
+        <v>-0.3809219598770142</v>
+      </c>
+      <c r="AO325" t="n">
+        <v>3.630000073462725</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -38978,6 +41901,15 @@
       <c r="AL326" t="n">
         <v>0.4860062450170517</v>
       </c>
+      <c r="AM326" t="n">
+        <v>3.732743224209678</v>
+      </c>
+      <c r="AN326" t="n">
+        <v>-0.7884512543678284</v>
+      </c>
+      <c r="AO326" t="n">
+        <v>3.760000016540289</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -39096,6 +42028,15 @@
       <c r="AL327" t="n">
         <v>0.6414456546306611</v>
       </c>
+      <c r="AM327" t="n">
+        <v>4.221253067858752</v>
+      </c>
+      <c r="AN327" t="n">
+        <v>-0.6078179478645325</v>
+      </c>
+      <c r="AO327" t="n">
+        <v>4.229999994859099</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -39214,6 +42155,15 @@
       <c r="AL328" t="n">
         <v>0.5080944776535035</v>
       </c>
+      <c r="AM328" t="n">
+        <v>4.149166638575728</v>
+      </c>
+      <c r="AN328" t="n">
+        <v>-0.5826395153999329</v>
+      </c>
+      <c r="AO328" t="n">
+        <v>3.95000004209578</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -39332,6 +42282,15 @@
       <c r="AL329" t="n">
         <v>0.6085056662559509</v>
       </c>
+      <c r="AM329" t="n">
+        <v>3.848136642911747</v>
+      </c>
+      <c r="AN329" t="n">
+        <v>-0.06502246856689453</v>
+      </c>
+      <c r="AO329" t="n">
+        <v>4.900000050663948</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -39450,6 +42409,15 @@
       <c r="AL330" t="n">
         <v>0.6287984013557434</v>
       </c>
+      <c r="AM330" t="n">
+        <v>3.899289165359129</v>
+      </c>
+      <c r="AN330" t="n">
+        <v>-0.3628129959106445</v>
+      </c>
+      <c r="AO330" t="n">
+        <v>4.590000044554472</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -39568,6 +42536,15 @@
       <c r="AL331" t="n">
         <v>0.452123835682869</v>
       </c>
+      <c r="AM331" t="n">
+        <v>2.87161773876127</v>
+      </c>
+      <c r="AN331" t="n">
+        <v>-0.5854601263999939</v>
+      </c>
+      <c r="AO331" t="n">
+        <v>4.420000007376075</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -39686,6 +42663,15 @@
       <c r="AL332" t="n">
         <v>0.397901377081871</v>
       </c>
+      <c r="AM332" t="n">
+        <v>1.893894133472422</v>
+      </c>
+      <c r="AN332" t="n">
+        <v>-0.8961891531944275</v>
+      </c>
+      <c r="AO332" t="n">
+        <v>3.959999958053231</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -39804,6 +42790,15 @@
       <c r="AL333" t="n">
         <v>0.3578519940376282</v>
       </c>
+      <c r="AM333" t="n">
+        <v>2.87161773876127</v>
+      </c>
+      <c r="AN333" t="n">
+        <v>-0.5034834146499634</v>
+      </c>
+      <c r="AO333" t="n">
+        <v>4.560000089928508</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -39922,6 +42917,15 @@
       <c r="AL334" t="n">
         <v>0.5876693964004517</v>
       </c>
+      <c r="AM334" t="n">
+        <v>3.260317090698395</v>
+      </c>
+      <c r="AN334" t="n">
+        <v>-1.13930356502533</v>
+      </c>
+      <c r="AO334" t="n">
+        <v>3.870000028982759</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -40040,6 +43044,15 @@
       <c r="AL335" t="n">
         <v>0.7605477035045624</v>
       </c>
+      <c r="AM335" t="n">
+        <v>5.876221911591415</v>
+      </c>
+      <c r="AN335" t="n">
+        <v>-1.178609728813171</v>
+      </c>
+      <c r="AO335" t="n">
+        <v>3.640000030398369</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -40158,6 +43171,15 @@
       <c r="AL336" t="n">
         <v>0.4989160478115082</v>
       </c>
+      <c r="AM336" t="n">
+        <v>5.217455596935289</v>
+      </c>
+      <c r="AN336" t="n">
+        <v>-0.659811794757843</v>
+      </c>
+      <c r="AO336" t="n">
+        <v>5.519999958574772</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -40276,6 +43298,15 @@
       <c r="AL337" t="n">
         <v>0.4779123336076737</v>
       </c>
+      <c r="AM337" t="n">
+        <v>2.467925401200141</v>
+      </c>
+      <c r="AN337" t="n">
+        <v>-0.4469689130783081</v>
+      </c>
+      <c r="AO337" t="n">
+        <v>4.919999986886978</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -40394,6 +43425,15 @@
       <c r="AL338" t="n">
         <v>0.8024911344051361</v>
       </c>
+      <c r="AM338" t="n">
+        <v>6.211487424454824</v>
+      </c>
+      <c r="AN338" t="n">
+        <v>-0.8931492567062378</v>
+      </c>
+      <c r="AO338" t="n">
+        <v>4.789999982342124</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -40512,6 +43552,15 @@
       <c r="AL339" t="n">
         <v>0.5716293573379516</v>
       </c>
+      <c r="AM339" t="n">
+        <v>3.226332593388028</v>
+      </c>
+      <c r="AN339" t="n">
+        <v>-0.3168882131576538</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>4.350000042468309</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -40630,6 +43679,15 @@
       <c r="AL340" t="n">
         <v>0.5141464322805405</v>
       </c>
+      <c r="AM340" t="n">
+        <v>4.068535326132871</v>
+      </c>
+      <c r="AN340" t="n">
+        <v>-0.9651087522506714</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>4.800000078976154</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -40748,6 +43806,15 @@
       <c r="AL341" t="n">
         <v>0.4688808232545852</v>
       </c>
+      <c r="AM341" t="n">
+        <v>3.950798984808895</v>
+      </c>
+      <c r="AN341" t="n">
+        <v>-0.612703800201416</v>
+      </c>
+      <c r="AO341" t="n">
+        <v>3.969999948516488</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -40866,6 +43933,15 @@
       <c r="AL342" t="n">
         <v>0.5645137190818786</v>
       </c>
+      <c r="AM342" t="n">
+        <v>4.576715856799913</v>
+      </c>
+      <c r="AN342" t="n">
+        <v>-0.7719907164573669</v>
+      </c>
+      <c r="AO342" t="n">
+        <v>4.069999966770411</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -40984,6 +44060,15 @@
       <c r="AL343" t="n">
         <v>0.3774684607982636</v>
       </c>
+      <c r="AM343" t="n">
+        <v>2.738992173486679</v>
+      </c>
+      <c r="AN343" t="n">
+        <v>-0.04826301336288452</v>
+      </c>
+      <c r="AO343" t="n">
+        <v>3.68999994546175</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -41102,6 +44187,15 @@
       <c r="AL344" t="n">
         <v>0.4903409212827682</v>
       </c>
+      <c r="AM344" t="n">
+        <v>2.653561978162053</v>
+      </c>
+      <c r="AN344" t="n">
+        <v>-0.8504084348678589</v>
+      </c>
+      <c r="AO344" t="n">
+        <v>4.249999953433871</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -41220,6 +44314,15 @@
       <c r="AL345" t="n">
         <v>0.5667906641960144</v>
       </c>
+      <c r="AM345" t="n">
+        <v>2.405777494451296</v>
+      </c>
+      <c r="AN345" t="n">
+        <v>-0.3457802534103394</v>
+      </c>
+      <c r="AO345" t="n">
+        <v>4.209999984130263</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -41338,6 +44441,15 @@
       <c r="AL346" t="n">
         <v>0.4039153069257736</v>
       </c>
+      <c r="AM346" t="n">
+        <v>4.149769406863889</v>
+      </c>
+      <c r="AN346" t="n">
+        <v>-0.9532606601715088</v>
+      </c>
+      <c r="AO346" t="n">
+        <v>4.909999936819077</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -41456,6 +44568,15 @@
       <c r="AL347" t="n">
         <v>0.5131696969270706</v>
       </c>
+      <c r="AM347" t="n">
+        <v>4.085624526835279</v>
+      </c>
+      <c r="AN347" t="n">
+        <v>-0.9155070781707764</v>
+      </c>
+      <c r="AO347" t="n">
+        <v>3.880000006407499</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -41574,6 +44695,15 @@
       <c r="AL348" t="n">
         <v>0.5462325870990753</v>
       </c>
+      <c r="AM348" t="n">
+        <v>5.373325470670158</v>
+      </c>
+      <c r="AN348" t="n">
+        <v>-1.356969118118286</v>
+      </c>
+      <c r="AO348" t="n">
+        <v>4.400000032037497</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -41692,6 +44822,15 @@
       <c r="AL349" t="n">
         <v>0.3854197740554809</v>
       </c>
+      <c r="AM349" t="n">
+        <v>2.963932000080177</v>
+      </c>
+      <c r="AN349" t="n">
+        <v>0.05912280082702637</v>
+      </c>
+      <c r="AO349" t="n">
+        <v>4.529999926686287</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -41810,6 +44949,15 @@
       <c r="AL350" t="n">
         <v>0.4004622161388397</v>
       </c>
+      <c r="AM350" t="n">
+        <v>2.945046655919803</v>
+      </c>
+      <c r="AN350" t="n">
+        <v>-0.910246729850769</v>
+      </c>
+      <c r="AO350" t="n">
+        <v>4.429999992251396</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -41928,6 +45076,15 @@
       <c r="AL351" t="n">
         <v>0.5016797006130218</v>
       </c>
+      <c r="AM351" t="n">
+        <v>3.666582488154564</v>
+      </c>
+      <c r="AN351" t="n">
+        <v>-1.011397004127502</v>
+      </c>
+      <c r="AO351" t="n">
+        <v>3.519999919459224</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -42046,6 +45203,15 @@
       <c r="AL352" t="n">
         <v>0.5392216622829438</v>
       </c>
+      <c r="AM352" t="n">
+        <v>4.33910900952864</v>
+      </c>
+      <c r="AN352" t="n">
+        <v>-1.086904287338257</v>
+      </c>
+      <c r="AO352" t="n">
+        <v>5.349999994039536</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -42164,6 +45330,15 @@
       <c r="AL353" t="n">
         <v>0.6123931229114532</v>
       </c>
+      <c r="AM353" t="n">
+        <v>2.547106647247766</v>
+      </c>
+      <c r="AN353" t="n">
+        <v>-0.372376024723053</v>
+      </c>
+      <c r="AO353" t="n">
+        <v>3.90999998152256</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -42282,6 +45457,15 @@
       <c r="AL354" t="n">
         <v>0.5617529094219208</v>
       </c>
+      <c r="AM354" t="n">
+        <v>3.504021746548418</v>
+      </c>
+      <c r="AN354" t="n">
+        <v>-0.1746821403503418</v>
+      </c>
+      <c r="AO354" t="n">
+        <v>4.500000085681677</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -42400,6 +45584,15 @@
       <c r="AL355" t="n">
         <v>0.6295401632785798</v>
       </c>
+      <c r="AM355" t="n">
+        <v>4.849341344050118</v>
+      </c>
+      <c r="AN355" t="n">
+        <v>-0.2164113521575928</v>
+      </c>
+      <c r="AO355" t="n">
+        <v>4.939999965950847</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -42518,6 +45711,15 @@
       <c r="AL356" t="n">
         <v>0.6529390215873718</v>
       </c>
+      <c r="AM356" t="n">
+        <v>5.392824665214425</v>
+      </c>
+      <c r="AN356" t="n">
+        <v>-1.086904287338257</v>
+      </c>
+      <c r="AO356" t="n">
+        <v>4.269999980926514</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -42636,6 +45838,15 @@
       <c r="AL357" t="n">
         <v>0.4842861235141754</v>
       </c>
+      <c r="AM357" t="n">
+        <v>2.768955396864123</v>
+      </c>
+      <c r="AN357" t="n">
+        <v>-0.3736975193023682</v>
+      </c>
+      <c r="AO357" t="n">
+        <v>3.69000006839633</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -42754,6 +45965,15 @@
       <c r="AL358" t="n">
         <v>0.4806671619415283</v>
       </c>
+      <c r="AM358" t="n">
+        <v>3.124343054850696</v>
+      </c>
+      <c r="AN358" t="n">
+        <v>-0.1457901000976562</v>
+      </c>
+      <c r="AO358" t="n">
+        <v>4.250000033527613</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -42872,6 +46092,15 @@
       <c r="AL359" t="n">
         <v>0.4876440793275833</v>
       </c>
+      <c r="AM359" t="n">
+        <v>3.727996789185216</v>
+      </c>
+      <c r="AN359" t="n">
+        <v>-0.5956318378448486</v>
+      </c>
+      <c r="AO359" t="n">
+        <v>3.90000000782311</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -42989,6 +46218,15 @@
       </c>
       <c r="AL360" t="n">
         <v>0.6628657817840576</v>
+      </c>
+      <c r="AM360" t="n">
+        <v>3.084225831642714</v>
+      </c>
+      <c r="AN360" t="n">
+        <v>-0.6691383719444275</v>
+      </c>
+      <c r="AO360" t="n">
+        <v>4.159999983385205</v>
       </c>
     </row>
   </sheetData>
